--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\Documents\GitHub\desktop-tutorial\IAM-COMPACT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\Documents\GitHub\desktop-tutorial\SteelTransition_EU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465C29B-4D52-41A3-887E-B981904AFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7549A-E5C6-4384-93C4-EC5D5ED062B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8914984-7C9D-4D85-AFCF-231DA7A8078E}"/>
   </bookViews>
@@ -63,40 +63,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>REPowerEU</t>
+  </si>
+  <si>
+    <t>IEA STEPS</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>BF-BOF</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Increased scrap availability</t>
+  </si>
+  <si>
+    <t>Without other technologies</t>
+  </si>
+  <si>
+    <t>Increased H2 availability</t>
+  </si>
+  <si>
+    <t>Delayed implementation</t>
+  </si>
+  <si>
     <t>Mixed implementation</t>
-  </si>
-  <si>
-    <t>Delayed implementation</t>
-  </si>
-  <si>
-    <t>Increased H2 availability</t>
-  </si>
-  <si>
-    <t>REPowerEU</t>
-  </si>
-  <si>
-    <t>Without other technologies</t>
-  </si>
-  <si>
-    <t>IEA STEPS</t>
-  </si>
-  <si>
-    <t>EAF</t>
-  </si>
-  <si>
-    <t>BF-BOF</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Increased scrap availability</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="str" cm="1">
         <f t="array" ref="C1:H1">('[1]2030 pathways'!$C$7:$H$7)</f>
@@ -578,15 +578,15 @@
         <v>BF-BOF with H2 injection</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2050</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2050</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2050</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>2030</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2030</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2030</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>2030</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
